--- a/weights.xlsx
+++ b/weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aidwise\Novartis\Main\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D735A6A-851C-4D76-961B-559262A6E39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6431014-755E-4847-B2D3-E9FA6DAF3E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C7B3170D-7923-4DA8-9605-572A129EB6FF}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -452,7 +452,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
